--- a/app-conf/data/datarep/species/templates/speciesTemplateExpanded.xlsx
+++ b/app-conf/data/datarep/species/templates/speciesTemplateExpanded.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="SpeciesPage" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ImageMetadata" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Synonyms" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="CommonNames" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Attributions" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="References" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="CountryCodes" sheetId="7" state="hidden" r:id="rId8"/>
-    <sheet name="Global Dist and Endemicity " sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Indian Dist and Endemicity" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="SpeciesPage" sheetId="1" r:id="rId1"/>
+    <sheet name="ImageMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="Synonyms" sheetId="3" r:id="rId3"/>
+    <sheet name="CommonNames" sheetId="4" r:id="rId4"/>
+    <sheet name="Attributions" sheetId="5" r:id="rId5"/>
+    <sheet name="References" sheetId="6" r:id="rId6"/>
+    <sheet name="CountryCodes" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Global Dist and Endemicity " sheetId="8" r:id="rId8"/>
+    <sheet name="Indian Dist and Endemicity" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -427,18 +426,12 @@
     <t>#Global Distribution Geographic Entity</t>
   </si>
   <si>
-    <t>Indian Distribution Geographic Entity</t>
-  </si>
-  <si>
     <t>State or States, District or Districts, Taluk or Taluks, Biogeographic region or regions in India according to IBP standard.</t>
   </si>
   <si>
     <t>Text. Fixed vocabulary from IBP database. 4 drop- down boxes, like those in 'Checklist Upload Form' with lists of States, Districts, Taluks and Biogeographic regions.</t>
   </si>
   <si>
-    <t>#Indian Distribution Geographic Entity</t>
-  </si>
-  <si>
     <t>Endemic Distribution</t>
   </si>
   <si>
@@ -454,16 +447,10 @@
     <t>#Global Endemicity Geographic Entity</t>
   </si>
   <si>
-    <t>Indian Endemicity Geographic Entity</t>
-  </si>
-  <si>
     <t>State or States and Biogeographic region or regions in India, according to IBP standard, that the taxon is endemic to.</t>
   </si>
   <si>
     <t>Text. Fixed vocabulary from IBP database. 2 drop- down boxes, like those in 'Checklist Upload Form' with lists of States and Biogeographic regions.</t>
-  </si>
-  <si>
-    <t>#Indian Endemicity Geographic Entity</t>
   </si>
   <si>
     <t>Occurrence</t>
@@ -658,13 +645,13 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">Public Domain, BY BY-NC, BY-SA, BY-NC-SA, BY-NC-ND</t>
+      <t>Public Domain, BY BY-NC, BY-SA, BY-NC-SA, BY-NC-ND</t>
     </r>
   </si>
   <si>
@@ -674,13 +661,13 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="11"/>
       </rPr>
-      <t xml:space="preserve">Children, General Audience, Expert, All</t>
+      <t>Children, General Audience, Expert, All</t>
     </r>
   </si>
   <si>
@@ -2269,57 +2256,49 @@
   </si>
   <si>
     <t>India Endemicity: Yes / No</t>
+  </si>
+  <si>
+    <t>Local Distribution Geographic Entity</t>
+  </si>
+  <si>
+    <t>#Local Distribution Geographic Entity</t>
+  </si>
+  <si>
+    <t>Local Endemicity Geographic Entity</t>
+  </si>
+  <si>
+    <t>#Local Endemicity Geographic Entity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0" numFmtId="165"/>
-    <numFmt formatCode="@" numFmtId="166"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2331,7 +2310,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2339,157 +2318,411 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:AMK80"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="41.0549019607843"/>
+    <col min="1" max="1025" width="41" style="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="3">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2536,7 +2769,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="2">
+    <row r="2" spans="1:15" ht="45">
       <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
@@ -2568,7 +2801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="189.55" outlineLevel="0" r="4">
+    <row r="4" spans="1:15" ht="255">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>
@@ -2588,7 +2821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="5">
+    <row r="5" spans="1:15" ht="75">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
@@ -2599,7 +2832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="6">
+    <row r="6" spans="1:15" ht="90">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -2614,7 +2847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="7">
+    <row r="7" spans="1:15" ht="75">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -2629,7 +2862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="8">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="4" t="s">
         <v>29</v>
       </c>
@@ -2646,7 +2879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9">
+    <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -2663,7 +2896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="10">
+    <row r="10" spans="1:15" ht="30">
       <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
@@ -2678,7 +2911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="11">
+    <row r="11" spans="1:15" ht="30">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -2695,7 +2928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12">
+    <row r="12" spans="1:15">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -2712,7 +2945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="13">
+    <row r="13" spans="1:15" ht="165">
       <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
@@ -2729,7 +2962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14">
+    <row r="14" spans="1:15">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -2746,7 +2979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="15">
+    <row r="15" spans="1:15" ht="45">
       <c r="A15" s="5" t="s">
         <v>43</v>
       </c>
@@ -2763,7 +2996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="16">
+    <row r="16" spans="1:15" ht="45">
       <c r="A16" s="5" t="s">
         <v>43</v>
       </c>
@@ -2780,7 +3013,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="176.1" outlineLevel="0" r="17">
+    <row r="17" spans="1:15" ht="195">
       <c r="A17" s="5" t="s">
         <v>43</v>
       </c>
@@ -2797,7 +3030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="18">
+    <row r="18" spans="1:15" ht="105">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -2824,7 +3057,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="19">
+    <row r="19" spans="1:15" ht="30">
       <c r="A19" s="5" t="s">
         <v>43</v>
       </c>
@@ -2853,7 +3086,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="20">
+    <row r="20" spans="1:15" ht="75">
       <c r="A20" s="5" t="s">
         <v>43</v>
       </c>
@@ -2867,7 +3100,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="21">
+    <row r="21" spans="1:15" ht="75">
       <c r="A21" s="5" t="s">
         <v>43</v>
       </c>
@@ -2881,7 +3114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="22">
+    <row r="22" spans="1:15" ht="75">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -2895,7 +3128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="23">
+    <row r="23" spans="1:15" ht="75">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -2909,7 +3142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="24">
+    <row r="24" spans="1:15" ht="75">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
@@ -2923,7 +3156,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="25">
+    <row r="25" spans="1:15" ht="75">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
@@ -2937,7 +3170,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="26">
+    <row r="26" spans="1:15" ht="75">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
@@ -2951,7 +3184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="27">
+    <row r="27" spans="1:15" ht="30">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -2965,7 +3198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="28">
+    <row r="28" spans="1:15" ht="30">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -2979,7 +3212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="29">
+    <row r="29" spans="1:15" ht="30">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -2993,7 +3226,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="30">
+    <row r="30" spans="1:15" ht="30">
       <c r="A30" s="5" t="s">
         <v>43</v>
       </c>
@@ -3007,7 +3240,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="31">
+    <row r="31" spans="1:15" ht="30">
       <c r="A31" s="5" t="s">
         <v>43</v>
       </c>
@@ -3021,7 +3254,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="32">
+    <row r="32" spans="1:15" ht="30">
       <c r="A32" s="5" t="s">
         <v>43</v>
       </c>
@@ -3035,7 +3268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="33">
+    <row r="33" spans="1:5" ht="30">
       <c r="A33" s="5" t="s">
         <v>43</v>
       </c>
@@ -3049,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="34">
+    <row r="34" spans="1:5" ht="30">
       <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
@@ -3064,7 +3297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="35">
+    <row r="35" spans="1:5" ht="150">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -3079,7 +3312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="36">
+    <row r="36" spans="1:5" ht="120">
       <c r="A36" s="5" t="s">
         <v>77</v>
       </c>
@@ -3094,7 +3327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="37">
+    <row r="37" spans="1:5" ht="60">
       <c r="A37" s="5" t="s">
         <v>77</v>
       </c>
@@ -3109,7 +3342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="38">
+    <row r="38" spans="1:5" ht="60">
       <c r="A38" s="5" t="s">
         <v>77</v>
       </c>
@@ -3124,7 +3357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="39">
+    <row r="39" spans="1:5" ht="45">
       <c r="A39" s="5" t="s">
         <v>77</v>
       </c>
@@ -3139,7 +3372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="40">
+    <row r="40" spans="1:5" ht="45">
       <c r="A40" s="5" t="s">
         <v>77</v>
       </c>
@@ -3154,7 +3387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="41">
+    <row r="41" spans="1:5" ht="45">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
@@ -3169,7 +3402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="42">
+    <row r="42" spans="1:5" ht="75">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -3184,7 +3417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="43">
+    <row r="43" spans="1:5" ht="150">
       <c r="A43" s="5" t="s">
         <v>77</v>
       </c>
@@ -3199,7 +3432,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="68.65" outlineLevel="0" r="44">
+    <row r="44" spans="1:5" ht="90">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -3214,7 +3447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="45">
+    <row r="45" spans="1:5" ht="60">
       <c r="A45" s="5" t="s">
         <v>77</v>
       </c>
@@ -3229,7 +3462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="46">
+    <row r="46" spans="1:5" ht="105">
       <c r="A46" s="5" t="s">
         <v>77</v>
       </c>
@@ -3244,7 +3477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="108.95" outlineLevel="0" r="47">
+    <row r="47" spans="1:5" ht="135">
       <c r="A47" s="5" t="s">
         <v>77</v>
       </c>
@@ -3259,7 +3492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="48">
+    <row r="48" spans="1:5" ht="150">
       <c r="A48" s="5" t="s">
         <v>77</v>
       </c>
@@ -3274,7 +3507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="49">
+    <row r="49" spans="1:15" ht="120">
       <c r="A49" s="5" t="s">
         <v>77</v>
       </c>
@@ -3289,7 +3522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="50">
+    <row r="50" spans="1:15" ht="105">
       <c r="A50" s="5" t="s">
         <v>77</v>
       </c>
@@ -3304,7 +3537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="51">
+    <row r="51" spans="1:15" ht="30">
       <c r="A51" s="5" t="s">
         <v>77</v>
       </c>
@@ -3319,7 +3552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="52">
+    <row r="52" spans="1:15" ht="45">
       <c r="A52" s="5" t="s">
         <v>77</v>
       </c>
@@ -3334,7 +3567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="53">
+    <row r="53" spans="1:15" ht="45">
       <c r="A53" s="5" t="s">
         <v>77</v>
       </c>
@@ -3349,7 +3582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="54">
+    <row r="54" spans="1:15" ht="45">
       <c r="A54" s="5" t="s">
         <v>77</v>
       </c>
@@ -3364,7 +3597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="55">
+    <row r="55" spans="1:15" ht="30">
       <c r="A55" s="5" t="s">
         <v>77</v>
       </c>
@@ -3379,7 +3612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="56">
+    <row r="56" spans="1:15" ht="165">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -3394,7 +3627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="122.35" outlineLevel="0" r="57">
+    <row r="57" spans="1:15" ht="165">
       <c r="A57" s="5" t="s">
         <v>120</v>
       </c>
@@ -3411,7 +3644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="58">
+    <row r="58" spans="1:15" ht="45">
       <c r="A58" s="5" t="s">
         <v>120</v>
       </c>
@@ -3440,7 +3673,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="59">
+    <row r="59" spans="1:15" ht="60">
       <c r="A59" s="5" t="s">
         <v>120</v>
       </c>
@@ -3448,16 +3681,16 @@
         <v>123</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="E59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F59" s="6" t="s">
-        <v>132</v>
+        <v>726</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -3469,40 +3702,40 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="60">
+    <row r="60" spans="1:15" ht="105">
       <c r="A60" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="61">
+    <row r="61" spans="1:15" ht="45">
       <c r="A61" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -3514,24 +3747,24 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="62">
+    <row r="62" spans="1:15" ht="60">
       <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>138</v>
+        <v>727</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>141</v>
+        <v>728</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -3543,356 +3776,338 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="63">
+    <row r="63" spans="1:15" ht="45">
       <c r="A63" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="64">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="45">
       <c r="A64" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="65">
+    <row r="65" spans="1:5" ht="30">
       <c r="A65" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="66">
+    <row r="66" spans="1:5" ht="60">
       <c r="A66" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="67">
+    <row r="67" spans="1:5" ht="135">
       <c r="A67" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="68">
+    <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="69">
+    <row r="69" spans="1:5" ht="60">
       <c r="A69" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="70">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="135.8" outlineLevel="0" r="71">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="165">
       <c r="A71" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="72">
+    <row r="72" spans="1:5" ht="30">
       <c r="A72" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="55.2" outlineLevel="0" r="73">
+    <row r="73" spans="1:5" ht="75">
       <c r="A73" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="74">
+    <row r="74" spans="1:5" ht="30">
       <c r="A74" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30">
+      <c r="A75" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B74" s="5" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C74" s="5" t="s">
+    </row>
+    <row r="78" spans="1:5" ht="30">
+      <c r="A78" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="75">
-      <c r="A75" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="76">
-      <c r="A76" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="77">
-      <c r="A77" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="78">
-      <c r="A78" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="79">
+    <row r="79" spans="1:5" ht="45">
       <c r="A79" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="80">
+    <row r="80" spans="1:5" ht="30">
       <c r="A80" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="11" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="8" width="41.0549019607843"/>
+    <col min="1" max="1" width="41" style="8"/>
+    <col min="2" max="2" width="41" style="9"/>
+    <col min="3" max="4" width="41" style="7"/>
+    <col min="5" max="5" width="41" style="10"/>
+    <col min="6" max="7" width="41" style="11"/>
+    <col min="8" max="1025" width="41" style="8"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="16"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="82.05" outlineLevel="0" r="2" s="7">
+    <row r="2" spans="1:7" s="7" customFormat="1" ht="105">
       <c r="A2" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="18" width="41.0549019607843"/>
+    <col min="1" max="1025" width="41" style="18"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>9</v>
@@ -3913,12 +4128,12 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="256.7" outlineLevel="0" r="2">
+    <row r="2" spans="1:9" ht="285">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>18</v>
@@ -3943,48 +4158,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:JI2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="4" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="18" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="19" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="4" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="18" width="41.0549019607843"/>
+    <col min="1" max="3" width="41" style="4"/>
+    <col min="4" max="5" width="41" style="1"/>
+    <col min="6" max="6" width="41" style="18"/>
+    <col min="7" max="7" width="41" style="19"/>
+    <col min="8" max="9" width="41" style="4"/>
+    <col min="10" max="1025" width="41" style="18"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="22">
+    <row r="1" spans="1:269" s="22" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -4005,12 +4211,12 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="2">
+    <row r="2" spans="1:269" ht="45">
       <c r="B2" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
@@ -4025,10 +4231,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
@@ -4294,10 +4500,9 @@
       <c r="JI2" s="22"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4306,40 +4511,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="18" width="41.0549019607843"/>
+    <col min="1" max="1025" width="41" style="18"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4348,55 +4548,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="26" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="28" width="41.0549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="18" width="41.0549019607843"/>
+    <col min="1" max="1" width="41" style="26"/>
+    <col min="2" max="2" width="41" style="27"/>
+    <col min="3" max="3" width="41" style="28"/>
+    <col min="4" max="1025" width="41" style="18"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="H1" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="I1" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="J1" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>207</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>211</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -4406,2049 +4602,2039 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+    <row r="2" spans="1:18">
       <c r="A2" s="26" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.63921568627451"/>
+    <col min="1" max="1" width="20.140625"/>
+    <col min="2" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="22">
+    <row r="1" spans="1:4" s="22" customFormat="1">
       <c r="A1" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B2" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="22" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="B3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
-      <c r="A2" s="18" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
-      <c r="A3" s="18" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
-      <c r="A4" s="18" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
-      <c r="A5" s="18" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
-      <c r="A6" s="18" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="18" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B9" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="18" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="18" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="18" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="18" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="18" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
-      <c r="A13" s="18" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
-      <c r="A14" s="18" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
-      <c r="A15" s="18" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B17" t="s">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
-      <c r="A16" s="18" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
-      <c r="A17" s="18" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B19" t="s">
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
-      <c r="A18" s="18" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B20" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
-      <c r="A20" s="18" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
-      <c r="A21" s="18" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B23" t="s">
         <v>256</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
-      <c r="A22" s="18" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B24" t="s">
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
-      <c r="A23" s="18" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
-      <c r="A24" s="18" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B26" t="s">
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
-      <c r="A25" s="18" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B27" t="s">
         <v>264</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
-      <c r="A26" s="18" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B28" t="s">
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
-      <c r="A27" s="18" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B29" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
-      <c r="A28" s="18" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B30" t="s">
         <v>270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
-      <c r="A29" s="18" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B31" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
-      <c r="A30" s="18" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
-      <c r="A31" s="18" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
-      <c r="A32" s="18" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
-      <c r="A33" s="18" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B35" t="s">
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
-      <c r="A34" s="18" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B36" t="s">
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
-      <c r="A35" s="18" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B37" t="s">
         <v>284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
-      <c r="A36" s="18" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B38" t="s">
         <v>286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
-      <c r="A37" s="18" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B39" t="s">
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
-      <c r="A38" s="18" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B40" t="s">
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
-      <c r="A39" s="18" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B41" t="s">
         <v>292</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
-      <c r="A40" s="18" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B42" t="s">
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
-      <c r="A41" s="18" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B43" t="s">
         <v>296</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
-      <c r="A42" s="18" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B44" t="s">
         <v>298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
-      <c r="A43" s="18" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B45" t="s">
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
-      <c r="A44" s="18" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B46" t="s">
         <v>302</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
-      <c r="A45" s="18" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
-      <c r="A46" s="18" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B48" t="s">
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
-      <c r="A47" s="18" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B49" t="s">
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
-      <c r="A48" s="18" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B50" t="s">
         <v>310</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
-      <c r="A49" s="18" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B51" t="s">
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
-      <c r="A50" s="18" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B52" t="s">
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
-      <c r="A51" s="18" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B53" t="s">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
-      <c r="A52" s="18" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B54" t="s">
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
-      <c r="A53" s="18" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B55" t="s">
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
-      <c r="A54" s="18" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B56" t="s">
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
-      <c r="A55" s="18" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B57" t="s">
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
-      <c r="A56" s="18" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B58" t="s">
         <v>326</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
-      <c r="A57" s="18" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B59" t="s">
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
-      <c r="A58" s="18" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="18" t="s">
         <v>329</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B60" t="s">
         <v>330</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
-      <c r="A59" s="18" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B61" t="s">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
-      <c r="A60" s="18" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B62" t="s">
         <v>334</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
-      <c r="A61" s="18" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B63" t="s">
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
-      <c r="A62" s="18" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
-      <c r="A63" s="18" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B65" t="s">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
-      <c r="A64" s="18" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B66" t="s">
         <v>342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
-      <c r="A65" s="18" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B67" t="s">
         <v>344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
-      <c r="A66" s="18" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B68" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
-      <c r="A67" s="18" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B69" t="s">
         <v>348</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
-      <c r="A68" s="18" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B70" t="s">
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
-      <c r="A69" s="18" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B71" t="s">
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="70">
-      <c r="A70" s="18" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B72" t="s">
         <v>354</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
-      <c r="A71" s="18" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B73" t="s">
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
-      <c r="A72" s="18" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B74" t="s">
         <v>358</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
-      <c r="A73" s="18" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B75" t="s">
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
-      <c r="A74" s="18" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B76" t="s">
         <v>362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
-      <c r="A75" s="18" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B77" t="s">
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
-      <c r="A76" s="18" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B78" t="s">
         <v>366</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="77">
-      <c r="A77" s="18" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B79" t="s">
         <v>368</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="78">
-      <c r="A78" s="18" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B80" t="s">
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
-      <c r="A79" s="18" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B81" t="s">
         <v>372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
-      <c r="A80" s="18" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B82" t="s">
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
-      <c r="A81" s="18" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B83" t="s">
         <v>376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
-      <c r="A82" s="18" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B84" t="s">
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
-      <c r="A83" s="18" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B85" t="s">
         <v>380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
-      <c r="A84" s="18" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B86" t="s">
         <v>382</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="85">
-      <c r="A85" s="18" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B87" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="86">
-      <c r="A86" s="18" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B88" t="s">
         <v>386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="87">
-      <c r="A87" s="18" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B89" t="s">
         <v>388</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="88">
-      <c r="A88" s="18" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="89">
-      <c r="A89" s="18" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B91" t="s">
         <v>392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="90">
-      <c r="A90" s="18" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B92" t="s">
         <v>394</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="91">
-      <c r="A91" s="18" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B93" t="s">
         <v>396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="92">
-      <c r="A92" s="18" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B94" t="s">
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="93">
-      <c r="A93" s="18" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B95" t="s">
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="94">
-      <c r="A94" s="18" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B96" t="s">
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="95">
-      <c r="A95" s="18" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B97" t="s">
         <v>404</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="96">
-      <c r="A96" s="18" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B98" t="s">
         <v>406</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="97">
-      <c r="A97" s="18" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B99" t="s">
         <v>408</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="98">
-      <c r="A98" s="18" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B100" t="s">
         <v>410</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="99">
-      <c r="A99" s="18" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B101" t="s">
         <v>412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="100">
-      <c r="A100" s="18" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B102" t="s">
         <v>414</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="101">
-      <c r="A101" s="18" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B103" t="s">
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="102">
-      <c r="A102" s="18" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B104" t="s">
         <v>418</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="103">
-      <c r="A103" s="18" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="18" t="s">
         <v>419</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="18" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="104">
-      <c r="A104" s="18" t="s">
+      <c r="B106" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="0" t="s">
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="18" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="105">
-      <c r="A105" s="18" t="s">
+      <c r="B107" t="s">
         <v>423</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="106">
-      <c r="A106" s="18" t="s">
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B108" t="s">
         <v>425</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="107">
-      <c r="A107" s="18" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="18" t="s">
         <v>426</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B109" t="s">
         <v>427</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="108">
-      <c r="A108" s="18" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B110" t="s">
         <v>429</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="109">
-      <c r="A109" s="18" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B111" t="s">
         <v>431</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="110">
-      <c r="A110" s="18" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B112" t="s">
         <v>433</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="111">
-      <c r="A111" s="18" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B113" t="s">
         <v>435</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="112">
-      <c r="A112" s="18" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B114" t="s">
         <v>437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="113">
-      <c r="A113" s="18" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B115" t="s">
         <v>439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="114">
-      <c r="A114" s="18" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B116" t="s">
         <v>441</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="115">
-      <c r="A115" s="18" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B117" t="s">
         <v>443</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="116">
-      <c r="A116" s="18" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B118" t="s">
         <v>445</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="117">
-      <c r="A117" s="18" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B119" t="s">
         <v>447</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="118">
-      <c r="A118" s="18" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B120" t="s">
         <v>449</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="119">
-      <c r="A119" s="18" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B121" t="s">
         <v>451</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="120">
-      <c r="A120" s="18" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B122" t="s">
         <v>453</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="121">
-      <c r="A121" s="18" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="122">
-      <c r="A122" s="18" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B124" t="s">
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="123">
-      <c r="A123" s="18" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B125" t="s">
         <v>459</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="124">
-      <c r="A124" s="18" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B126" t="s">
         <v>461</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="125">
-      <c r="A125" s="18" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B127" t="s">
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="126">
-      <c r="A126" s="18" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B128" t="s">
         <v>465</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="127">
-      <c r="A127" s="18" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B129" t="s">
         <v>467</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="128">
-      <c r="A128" s="18" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B130" t="s">
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="129">
-      <c r="A129" s="18" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B131" t="s">
         <v>471</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="130">
-      <c r="A130" s="18" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B132" t="s">
         <v>473</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="131">
-      <c r="A131" s="18" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B133" t="s">
         <v>475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="132">
-      <c r="A132" s="18" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B134" t="s">
         <v>477</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="133">
-      <c r="A133" s="18" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B135" t="s">
         <v>479</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="134">
-      <c r="A134" s="18" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B136" t="s">
         <v>481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="135">
-      <c r="A135" s="18" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B137" t="s">
         <v>483</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="136">
-      <c r="A136" s="18" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B138" t="s">
         <v>485</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="137">
-      <c r="A137" s="18" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B139" t="s">
         <v>487</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="138">
-      <c r="A138" s="18" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B140" t="s">
         <v>489</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="139">
-      <c r="A139" s="18" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B141" t="s">
         <v>491</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="140">
-      <c r="A140" s="18" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B142" t="s">
         <v>493</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="141">
-      <c r="A141" s="18" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="142">
-      <c r="A142" s="18" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B144" t="s">
         <v>497</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="143">
-      <c r="A143" s="18" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B145" t="s">
         <v>499</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="144">
-      <c r="A144" s="18" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B146" t="s">
         <v>501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="145">
-      <c r="A145" s="18" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B147" t="s">
         <v>503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="146">
-      <c r="A146" s="18" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B148" t="s">
         <v>505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="147">
-      <c r="A147" s="18" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B149" t="s">
         <v>507</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="148">
-      <c r="A148" s="18" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B150" t="s">
         <v>509</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="149">
-      <c r="A149" s="18" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B151" t="s">
         <v>511</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="150">
-      <c r="A150" s="18" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B152" t="s">
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="151">
-      <c r="A151" s="18" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B153" t="s">
         <v>515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="152">
-      <c r="A152" s="18" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B154" t="s">
         <v>517</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="153">
-      <c r="A153" s="18" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B155" t="s">
         <v>519</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="154">
-      <c r="A154" s="18" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B156" t="s">
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="155">
-      <c r="A155" s="18" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B157" t="s">
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="156">
-      <c r="A156" s="18" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B158" t="s">
         <v>525</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="157">
-      <c r="A157" s="18" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="18" t="s">
         <v>526</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B159" t="s">
         <v>527</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="158">
-      <c r="A158" s="18" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B160" t="s">
         <v>529</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="159">
-      <c r="A159" s="18" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B161" t="s">
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="160">
-      <c r="A160" s="18" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B162" t="s">
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="161">
-      <c r="A161" s="18" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B163" t="s">
         <v>535</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="162">
-      <c r="A162" s="18" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B164" t="s">
         <v>537</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="163">
-      <c r="A163" s="18" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="18" t="s">
         <v>538</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B165" t="s">
         <v>539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="164">
-      <c r="A164" s="18" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="18" t="s">
         <v>540</v>
       </c>
-      <c r="B164" s="0" t="s">
+      <c r="B166" t="s">
         <v>541</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="165">
-      <c r="A165" s="18" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="B165" s="0" t="s">
+      <c r="B167" t="s">
         <v>543</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="166">
-      <c r="A166" s="18" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="B166" s="0" t="s">
+      <c r="B168" t="s">
         <v>545</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="167">
-      <c r="A167" s="18" t="s">
+    <row r="169" spans="1:2">
+      <c r="A169" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="B167" s="0" t="s">
+      <c r="B169" t="s">
         <v>547</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="168">
-      <c r="A168" s="18" t="s">
+    <row r="170" spans="1:2">
+      <c r="A170" s="18" t="s">
         <v>548</v>
       </c>
-      <c r="B168" s="0" t="s">
+      <c r="B170" t="s">
         <v>549</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="169">
-      <c r="A169" s="18" t="s">
+    <row r="171" spans="1:2">
+      <c r="A171" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="B169" s="0" t="s">
+      <c r="B171" t="s">
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="170">
-      <c r="A170" s="18" t="s">
+    <row r="172" spans="1:2">
+      <c r="A172" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B172" t="s">
         <v>553</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="171">
-      <c r="A171" s="18" t="s">
+    <row r="173" spans="1:2">
+      <c r="A173" s="18" t="s">
         <v>554</v>
       </c>
-      <c r="B171" s="0" t="s">
+      <c r="B173" t="s">
         <v>555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="172">
-      <c r="A172" s="18" t="s">
+    <row r="174" spans="1:2">
+      <c r="A174" s="18" t="s">
         <v>556</v>
       </c>
-      <c r="B172" s="0" t="s">
+      <c r="B174" t="s">
         <v>557</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="173">
-      <c r="A173" s="18" t="s">
+    <row r="175" spans="1:2">
+      <c r="A175" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="B173" s="0" t="s">
+      <c r="B175" t="s">
         <v>559</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="174">
-      <c r="A174" s="18" t="s">
+    <row r="176" spans="1:2">
+      <c r="A176" s="18" t="s">
         <v>560</v>
       </c>
-      <c r="B174" s="0" t="s">
+      <c r="B176" t="s">
         <v>561</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="175">
-      <c r="A175" s="18" t="s">
+    <row r="177" spans="1:2">
+      <c r="A177" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B175" s="0" t="s">
+      <c r="B177" t="s">
         <v>563</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="176">
-      <c r="A176" s="18" t="s">
+    <row r="178" spans="1:2">
+      <c r="A178" s="18" t="s">
         <v>564</v>
       </c>
-      <c r="B176" s="0" t="s">
+      <c r="B178" t="s">
         <v>565</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="177">
-      <c r="A177" s="18" t="s">
+    <row r="179" spans="1:2">
+      <c r="A179" s="18" t="s">
         <v>566</v>
       </c>
-      <c r="B177" s="0" t="s">
+      <c r="B179" t="s">
         <v>567</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="178">
-      <c r="A178" s="18" t="s">
+    <row r="180" spans="1:2">
+      <c r="A180" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B180" t="s">
         <v>569</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="179">
-      <c r="A179" s="18" t="s">
+    <row r="181" spans="1:2">
+      <c r="A181" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B181" t="s">
         <v>571</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="180">
-      <c r="A180" s="18" t="s">
+    <row r="182" spans="1:2">
+      <c r="A182" s="18" t="s">
         <v>572</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="B182" t="s">
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="181">
-      <c r="A181" s="18" t="s">
+    <row r="183" spans="1:2">
+      <c r="A183" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="B181" s="0" t="s">
+      <c r="B183" t="s">
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="182">
-      <c r="A182" s="18" t="s">
+    <row r="184" spans="1:2">
+      <c r="A184" s="18" t="s">
         <v>576</v>
       </c>
-      <c r="B182" s="0" t="s">
+      <c r="B184" t="s">
         <v>577</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="183">
-      <c r="A183" s="18" t="s">
+    <row r="185" spans="1:2">
+      <c r="A185" s="18" t="s">
         <v>578</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B185" t="s">
         <v>579</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="184">
-      <c r="A184" s="18" t="s">
+    <row r="186" spans="1:2">
+      <c r="A186" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="B184" s="0" t="s">
+      <c r="B186" t="s">
         <v>581</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="185">
-      <c r="A185" s="18" t="s">
+    <row r="187" spans="1:2">
+      <c r="A187" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B185" s="0" t="s">
+      <c r="B187" t="s">
         <v>583</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="186">
-      <c r="A186" s="18" t="s">
+    <row r="188" spans="1:2">
+      <c r="A188" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="B186" s="0" t="s">
+      <c r="B188" t="s">
         <v>585</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="187">
-      <c r="A187" s="18" t="s">
+    <row r="189" spans="1:2">
+      <c r="A189" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B187" s="0" t="s">
+      <c r="B189" t="s">
         <v>587</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="188">
-      <c r="A188" s="18" t="s">
+    <row r="190" spans="1:2">
+      <c r="A190" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="B188" s="0" t="s">
+      <c r="B190" t="s">
         <v>589</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="189">
-      <c r="A189" s="18" t="s">
+    <row r="191" spans="1:2">
+      <c r="A191" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="B189" s="0" t="s">
+      <c r="B191" t="s">
         <v>591</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="190">
-      <c r="A190" s="18" t="s">
+    <row r="192" spans="1:2">
+      <c r="A192" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B190" s="0" t="s">
+      <c r="B192" t="s">
         <v>593</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="191">
-      <c r="A191" s="18" t="s">
+    <row r="193" spans="1:2">
+      <c r="A193" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="B191" s="0" t="s">
+      <c r="B193" t="s">
         <v>595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="192">
-      <c r="A192" s="18" t="s">
+    <row r="194" spans="1:2">
+      <c r="A194" s="18" t="s">
         <v>596</v>
       </c>
-      <c r="B192" s="0" t="s">
+      <c r="B194" t="s">
         <v>597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="193">
-      <c r="A193" s="18" t="s">
+    <row r="195" spans="1:2">
+      <c r="A195" s="18" t="s">
         <v>598</v>
       </c>
-      <c r="B193" s="0" t="s">
+      <c r="B195" t="s">
         <v>599</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="194">
-      <c r="A194" s="18" t="s">
+    <row r="196" spans="1:2">
+      <c r="A196" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="B194" s="0" t="s">
+      <c r="B196" t="s">
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="195">
-      <c r="A195" s="18" t="s">
+    <row r="197" spans="1:2">
+      <c r="A197" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="B195" s="0" t="s">
+      <c r="B197" t="s">
         <v>603</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="196">
-      <c r="A196" s="18" t="s">
+    <row r="198" spans="1:2">
+      <c r="A198" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="B196" s="0" t="s">
+      <c r="B198" t="s">
         <v>605</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="197">
-      <c r="A197" s="18" t="s">
+    <row r="199" spans="1:2">
+      <c r="A199" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="B197" s="0" t="s">
+      <c r="B199" t="s">
         <v>607</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="198">
-      <c r="A198" s="18" t="s">
+    <row r="200" spans="1:2">
+      <c r="A200" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="B198" s="0" t="s">
+      <c r="B200" t="s">
         <v>609</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="199">
-      <c r="A199" s="18" t="s">
+    <row r="201" spans="1:2">
+      <c r="A201" s="18" t="s">
         <v>610</v>
       </c>
-      <c r="B199" s="0" t="s">
+      <c r="B201" t="s">
         <v>611</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="200">
-      <c r="A200" s="18" t="s">
+    <row r="202" spans="1:2">
+      <c r="A202" s="18" t="s">
         <v>612</v>
       </c>
-      <c r="B200" s="0" t="s">
+      <c r="B202" t="s">
         <v>613</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="201">
-      <c r="A201" s="18" t="s">
+    <row r="203" spans="1:2">
+      <c r="A203" s="18" t="s">
         <v>614</v>
       </c>
-      <c r="B201" s="0" t="s">
+      <c r="B203" t="s">
         <v>615</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="202">
-      <c r="A202" s="18" t="s">
+    <row r="204" spans="1:2">
+      <c r="A204" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="B202" s="0" t="s">
+      <c r="B204" t="s">
         <v>617</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="203">
-      <c r="A203" s="18" t="s">
+    <row r="205" spans="1:2">
+      <c r="A205" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="B203" s="0" t="s">
+      <c r="B205" t="s">
         <v>619</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="204">
-      <c r="A204" s="18" t="s">
+    <row r="206" spans="1:2">
+      <c r="A206" s="18" t="s">
         <v>620</v>
       </c>
-      <c r="B204" s="0" t="s">
+      <c r="B206" t="s">
         <v>621</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="205">
-      <c r="A205" s="18" t="s">
+    <row r="207" spans="1:2">
+      <c r="A207" s="18" t="s">
         <v>622</v>
       </c>
-      <c r="B205" s="0" t="s">
+      <c r="B207" t="s">
         <v>623</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="206">
-      <c r="A206" s="18" t="s">
+    <row r="208" spans="1:2">
+      <c r="A208" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="B206" s="0" t="s">
+      <c r="B208" t="s">
         <v>625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="207">
-      <c r="A207" s="18" t="s">
+    <row r="209" spans="1:2">
+      <c r="A209" s="18" t="s">
         <v>626</v>
       </c>
-      <c r="B207" s="0" t="s">
+      <c r="B209" t="s">
         <v>627</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="208">
-      <c r="A208" s="18" t="s">
+    <row r="210" spans="1:2">
+      <c r="A210" s="18" t="s">
         <v>628</v>
       </c>
-      <c r="B208" s="0" t="s">
+      <c r="B210" t="s">
         <v>629</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="209">
-      <c r="A209" s="18" t="s">
+    <row r="211" spans="1:2">
+      <c r="A211" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="B209" s="0" t="s">
+      <c r="B211" t="s">
         <v>631</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="210">
-      <c r="A210" s="18" t="s">
+    <row r="212" spans="1:2">
+      <c r="A212" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="B210" s="0" t="s">
+      <c r="B212" t="s">
         <v>633</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="211">
-      <c r="A211" s="18" t="s">
+    <row r="213" spans="1:2">
+      <c r="A213" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="B211" s="0" t="s">
+      <c r="B213" t="s">
         <v>635</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="212">
-      <c r="A212" s="18" t="s">
+    <row r="214" spans="1:2">
+      <c r="A214" s="18" t="s">
         <v>636</v>
       </c>
-      <c r="B212" s="0" t="s">
+      <c r="B214" t="s">
         <v>637</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="213">
-      <c r="A213" s="18" t="s">
+    <row r="215" spans="1:2">
+      <c r="A215" s="18" t="s">
         <v>638</v>
       </c>
-      <c r="B213" s="0" t="s">
+      <c r="B215" t="s">
         <v>639</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="214">
-      <c r="A214" s="18" t="s">
+    <row r="216" spans="1:2">
+      <c r="A216" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="B214" s="0" t="s">
+      <c r="B216" t="s">
         <v>641</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="215">
-      <c r="A215" s="18" t="s">
+    <row r="217" spans="1:2">
+      <c r="A217" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="B215" s="0" t="s">
+      <c r="B217" t="s">
         <v>643</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="216">
-      <c r="A216" s="18" t="s">
+    <row r="218" spans="1:2">
+      <c r="A218" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="B216" s="0" t="s">
+      <c r="B218" t="s">
         <v>645</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="217">
-      <c r="A217" s="18" t="s">
+    <row r="219" spans="1:2">
+      <c r="A219" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="B217" s="0" t="s">
+      <c r="B219" t="s">
         <v>647</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="218">
-      <c r="A218" s="18" t="s">
+    <row r="220" spans="1:2">
+      <c r="A220" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="B218" s="0" t="s">
+      <c r="B220" t="s">
         <v>649</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="219">
-      <c r="A219" s="18" t="s">
+    <row r="221" spans="1:2">
+      <c r="A221" s="18" t="s">
         <v>650</v>
       </c>
-      <c r="B219" s="0" t="s">
+      <c r="B221" t="s">
         <v>651</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="220">
-      <c r="A220" s="18" t="s">
+    <row r="222" spans="1:2">
+      <c r="A222" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="B220" s="0" t="s">
+      <c r="B222" t="s">
         <v>653</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="221">
-      <c r="A221" s="18" t="s">
+    <row r="223" spans="1:2">
+      <c r="A223" s="18" t="s">
         <v>654</v>
       </c>
-      <c r="B221" s="0" t="s">
+      <c r="B223" t="s">
         <v>655</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="222">
-      <c r="A222" s="18" t="s">
+    <row r="224" spans="1:2">
+      <c r="A224" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="B222" s="0" t="s">
+      <c r="B224" t="s">
         <v>657</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="223">
-      <c r="A223" s="18" t="s">
+    <row r="225" spans="1:2">
+      <c r="A225" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="B223" s="0" t="s">
+      <c r="B225" t="s">
         <v>659</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="224">
-      <c r="A224" s="18" t="s">
+    <row r="226" spans="1:2">
+      <c r="A226" s="18" t="s">
         <v>660</v>
       </c>
-      <c r="B224" s="0" t="s">
+      <c r="B226" t="s">
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="225">
-      <c r="A225" s="18" t="s">
+    <row r="227" spans="1:2">
+      <c r="A227" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="B225" s="0" t="s">
+      <c r="B227" t="s">
         <v>663</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="226">
-      <c r="A226" s="18" t="s">
+    <row r="228" spans="1:2">
+      <c r="A228" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="B226" s="0" t="s">
+      <c r="B228" t="s">
         <v>665</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="227">
-      <c r="A227" s="18" t="s">
+    <row r="229" spans="1:2">
+      <c r="A229" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="B227" s="0" t="s">
+      <c r="B229" t="s">
         <v>667</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="228">
-      <c r="A228" s="18" t="s">
+    <row r="230" spans="1:2">
+      <c r="A230" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="B228" s="0" t="s">
+      <c r="B230" t="s">
         <v>669</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="229">
-      <c r="A229" s="18" t="s">
+    <row r="231" spans="1:2">
+      <c r="A231" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="B229" s="0" t="s">
+      <c r="B231" t="s">
         <v>671</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="230">
-      <c r="A230" s="18" t="s">
+    <row r="232" spans="1:2">
+      <c r="A232" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="B230" s="0" t="s">
+      <c r="B232" t="s">
         <v>673</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="231">
-      <c r="A231" s="18" t="s">
+    <row r="233" spans="1:2">
+      <c r="A233" s="18" t="s">
         <v>674</v>
       </c>
-      <c r="B231" s="0" t="s">
+      <c r="B233" t="s">
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="232">
-      <c r="A232" s="18" t="s">
+    <row r="234" spans="1:2">
+      <c r="A234" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="B232" s="0" t="s">
+      <c r="B234" t="s">
         <v>677</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="233">
-      <c r="A233" s="18" t="s">
+    <row r="235" spans="1:2">
+      <c r="A235" s="18" t="s">
         <v>678</v>
       </c>
-      <c r="B233" s="0" t="s">
+      <c r="B235" t="s">
         <v>679</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="234">
-      <c r="A234" s="18" t="s">
+    <row r="236" spans="1:2">
+      <c r="A236" s="18" t="s">
         <v>680</v>
       </c>
-      <c r="B234" s="0" t="s">
+      <c r="B236" t="s">
         <v>681</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="235">
-      <c r="A235" s="18" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" s="18" t="s">
         <v>682</v>
       </c>
-      <c r="B235" s="0" t="s">
+      <c r="B237" t="s">
         <v>683</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="236">
-      <c r="A236" s="18" t="s">
+    <row r="238" spans="1:2">
+      <c r="A238" s="18" t="s">
         <v>684</v>
       </c>
-      <c r="B236" s="0" t="s">
+      <c r="B238" t="s">
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="237">
-      <c r="A237" s="18" t="s">
+    <row r="239" spans="1:2">
+      <c r="A239" s="18" t="s">
         <v>686</v>
       </c>
-      <c r="B237" s="0" t="s">
+      <c r="B239" t="s">
         <v>687</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="238">
-      <c r="A238" s="18" t="s">
+    <row r="240" spans="1:2">
+      <c r="A240" s="18" t="s">
         <v>688</v>
       </c>
-      <c r="B238" s="0" t="s">
+      <c r="B240" t="s">
         <v>689</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="239">
-      <c r="A239" s="18" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="B239" s="0" t="s">
+      <c r="B241" t="s">
         <v>691</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="240">
-      <c r="A240" s="18" t="s">
+    <row r="242" spans="1:2">
+      <c r="A242" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="B240" s="0" t="s">
+      <c r="B242" t="s">
         <v>693</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="241">
-      <c r="A241" s="18" t="s">
+    <row r="243" spans="1:2">
+      <c r="A243" s="18" t="s">
         <v>694</v>
       </c>
-      <c r="B241" s="0" t="s">
+      <c r="B243" t="s">
         <v>695</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="242">
-      <c r="A242" s="18" t="s">
+    <row r="244" spans="1:2">
+      <c r="A244" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="B242" s="0" t="s">
+      <c r="B244" t="s">
         <v>697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="243">
-      <c r="A243" s="18" t="s">
+    <row r="245" spans="1:2">
+      <c r="A245" s="18" t="s">
         <v>698</v>
       </c>
-      <c r="B243" s="0" t="s">
+      <c r="B245" t="s">
         <v>699</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="244">
-      <c r="A244" s="18" t="s">
+    <row r="246" spans="1:2">
+      <c r="A246" s="18" t="s">
         <v>700</v>
       </c>
-      <c r="B244" s="0" t="s">
+      <c r="B246" t="s">
         <v>701</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="245">
-      <c r="A245" s="18" t="s">
+    <row r="247" spans="1:2">
+      <c r="A247" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="B245" s="0" t="s">
+      <c r="B247" t="s">
         <v>703</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="246">
-      <c r="A246" s="18" t="s">
+    <row r="248" spans="1:2">
+      <c r="A248" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="B246" s="0" t="s">
+      <c r="B248" t="s">
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="247">
-      <c r="A247" s="18" t="s">
+    <row r="249" spans="1:2">
+      <c r="A249" s="18" t="s">
         <v>706</v>
       </c>
-      <c r="B247" s="0" t="s">
+      <c r="B249" t="s">
         <v>707</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="248">
-      <c r="A248" s="18" t="s">
+    <row r="250" spans="1:2">
+      <c r="A250" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="B248" s="0" t="s">
+      <c r="B250" t="s">
         <v>709</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="249">
-      <c r="A249" s="18" t="s">
-        <v>710</v>
-      </c>
-      <c r="B249" s="0" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="250">
-      <c r="A250" s="18" t="s">
-        <v>712</v>
-      </c>
-      <c r="B250" s="0" t="s">
-        <v>713</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6457,58 +6643,53 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="41.0549019607843"/>
+    <col min="1" max="1025" width="41"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="22">
+    <row r="1" spans="1:5" s="22" customFormat="1">
       <c r="A1" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="B2" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="C2" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D2" s="4" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>722</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -6517,52 +6698,47 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="41.0549019607843"/>
+    <col min="1" max="1025" width="41"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1" s="22">
+    <row r="1" spans="1:4" s="22" customFormat="1">
       <c r="A1" s="22" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>720</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="D2" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="D1" s="22" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>728</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
